--- a/biology/Médecine/Services_Institute_of_Medical_Sciences/Services_Institute_of_Medical_Sciences.xlsx
+++ b/biology/Médecine/Services_Institute_of_Medical_Sciences/Services_Institute_of_Medical_Sciences.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut de services aux sciences médicales (en anglais Services Institute of Medical Sciences, SIMS, en ourdou سروسز انسٹیٹوٹ آف میڈیکل سائنسز) est une école de médecine située à Lahore, dans la province de Pendjab, au Pakistan.
 L'hôpital de Lahore (en) est rattaché à l'école de médecine en qualité d'entité universitaire.
@@ -512,20 +524,216 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le SIMS a été fondé le 25 février 2003[1],[N 1] par le professeur et docteur en médecine Faisal Masud (en) qui en reste l'actuel directeur[1]. Les cours ont débuté à partir du 21 avril 2003[2]. À l'origine, l'établissement est partie intégrante d'un immeuble relié au Collège de médecine communautaire de Pendjab situé au no 6 de la Birdwood Road, à Lahore. La structure est ensuite transférée[Quand ?] vers un nouveau campus situé à proximité de l'Institut de cardiologie de Pendjab[réf. nécessaire].
-Campus
-Auditorium
-Quatre auditoriums de conférence — auxquels s'ajoutent les salles de cours — gravitent autour d'un bâtiment central. L'enceinte, entièrement climatisée, bénéficie de l'air conditionné et dispose d'une capacité d'accueil de 400 places[réf. nécessaire].
-Librairie
-La librairie de l'université, outre qu'elle confère l'accès à la Commission de l'enseignement supérieur du Pakistan (en)[3], est reliée par réseau informatisé à plusieurs milliers de contenus scientifiques librement consultables. Elle met également à disposition plus de 8 000 livres, 78 revues nationales et internationales ainsi qu'une vidéothèque[réf. nécessaire].
-Foyer des étudiants
-Les foyers destinés à l'hébergement des étudiants sont en cours de construction. Dans l'attente de la finalisation des travaux, le SIMS a conclu des arrangements forfaitaires avec différents hôtels et maisons d'hôtes environnants[2].
-Informatique
-Assisté de techniques informatisées de pointe telles que des microscopes Carl Zeiss à l'usage des étudiants ou de type penta-tête &amp; déca-tête aux fins de présentations publiques et de recherche scientifique, le département de pathologie est labellisé aux normes de certification ISO 9002 et 15142[4].
-Enseignement
-Le SIMS pratique et enseigne les disciplines suivantes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le SIMS a été fondé le 25 février 2003,[N 1] par le professeur et docteur en médecine Faisal Masud (en) qui en reste l'actuel directeur. Les cours ont débuté à partir du 21 avril 2003. À l'origine, l'établissement est partie intégrante d'un immeuble relié au Collège de médecine communautaire de Pendjab situé au no 6 de la Birdwood Road, à Lahore. La structure est ensuite transférée[Quand ?] vers un nouveau campus situé à proximité de l'Institut de cardiologie de Pendjab[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatre auditoriums de conférence — auxquels s'ajoutent les salles de cours — gravitent autour d'un bâtiment central. L'enceinte, entièrement climatisée, bénéficie de l'air conditionné et dispose d'une capacité d'accueil de 400 places[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Librairie</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La librairie de l'université, outre qu'elle confère l'accès à la Commission de l'enseignement supérieur du Pakistan (en), est reliée par réseau informatisé à plusieurs milliers de contenus scientifiques librement consultables. Elle met également à disposition plus de 8 000 livres, 78 revues nationales et internationales ainsi qu'une vidéothèque[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Foyer des étudiants</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les foyers destinés à l'hébergement des étudiants sont en cours de construction. Dans l'attente de la finalisation des travaux, le SIMS a conclu des arrangements forfaitaires avec différents hôtels et maisons d'hôtes environnants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Informatique</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assisté de techniques informatisées de pointe telles que des microscopes Carl Zeiss à l'usage des étudiants ou de type penta-tête &amp; déca-tête aux fins de présentations publiques et de recherche scientifique, le département de pathologie est labellisé aux normes de certification ISO 9002 et 15142.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Enseignement</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le SIMS pratique et enseigne les disciplines suivantes :
 Sciences humaines :
 Anatomie
 Biochimie
@@ -548,20 +756,20 @@
 Radiothérapie
 Urologie
 Chirurgie :
-Anesthésiologie[5]
+Anesthésiologie
 Chirurgie cardiaque
 Chirurgie générale
 Chirurgie esthétique
-Chirurgie maxillo-faciale et reconstructive[6]
+Chirurgie maxillo-faciale et reconstructive
 Chirurgie pédiatrique
 Gynécologie obstétrique
 Neurochirurgie
 Ophtalmologie
 Orthopédie
-Otorhinolaryngologie[5]
+Otorhinolaryngologie
 Radiologie
 Administration :
-Esculapio Creative Department[7]
+Esculapio Creative Department
 Département des technologies de l'information et de la communication
 			Entrée du campus
 			Librairie de l'université
@@ -570,31 +778,320 @@
 			Laboratoire de biochimie
 			Laboratoire de pathologie
 			Laboratoire d'histologie
-Centre hospitalier universitaire
-Le Services Hospital (en) dispose de 1 196 lits[1] et travaille en étroite collaboration avec le SIMS[2].
-Admission
-Chaque année, 190 élèves sont recrutés sur concours[1]. Les conditions d'admissibilité se veulent neutres ; elles sont centralisées par le biais de bulletins non nominatifs afin de garantir la fiabilité du processus ; celui-ci est centralisé par le Medical College Admission Test (en) et l'université des sciences de la santé de Lahore. Une souscription optionnelle est également proposée par la Commission de l'enseignement supérieur du Pakistan (en)[3].
-Cursus universitaire
-L'octroi des diplômes de fin d'étude obtenus à l'issue d'un cursus universitaire au SIMS se subdivise en quatre degrés distincts qui sont ensuite entérinés par l'université des sciences de la santé de Lahore[8] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Centre hospitalier universitaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Services Hospital (en) dispose de 1 196 lits et travaille en étroite collaboration avec le SIMS.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Centre hospitalier universitaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Admission</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque année, 190 élèves sont recrutés sur concours. Les conditions d'admissibilité se veulent neutres ; elles sont centralisées par le biais de bulletins non nominatifs afin de garantir la fiabilité du processus ; celui-ci est centralisé par le Medical College Admission Test (en) et l'université des sciences de la santé de Lahore. Une souscription optionnelle est également proposée par la Commission de l'enseignement supérieur du Pakistan (en).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Centre hospitalier universitaire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cursus universitaire</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L'octroi des diplômes de fin d'étude obtenus à l'issue d'un cursus universitaire au SIMS se subdivise en quatre degrés distincts qui sont ensuite entérinés par l'université des sciences de la santé de Lahore :
 baccalauréat de médecine et de chirurgie
 baccalauréat universitaire ès sciences
 baccalauréat universitaire ès sciences de technologie médicale en laboratoire
-baccalauréat universitaire ès sciences de technologie médicale en bloc opératoire
-Subventions et bourses d'études
-Diverses mesures promotionnelles et incitatives sont dispensées au profit d'étudiants méritants. Chaque dotation, définie au cas par cas, s'effectue sous forme de subventions pluridisciplinaires parmi lesquelles figurent des bourses d'études, des bons de trésorerie, voire l'attribution de médailles honorifiques.
-Journal
-Le SIMS édite un journal spécialisé, The Esculapio[1], dont le contenu est consacré à la recherche médicale[7]. Sa diffusion jouit d'une renommée internationale auprès de la communauté scientifique[évasif],[Par qui ?],[réf. souhaitée].
-Recherche
-Le SIMS est le premier collège médical de premier cycle qui astreint chaque étudiant de 4e année à l'élaboration d'un travail de recherche. La faculté croit en la vertu de l'éveil de la curiosité et de la soif d'apprendre ; elle cherche ainsi à accroître l'intérêt et l'ouverture d'esprit qui, selon elle, relèvent de qualités au moins aussi importantes au développement des connaissances que l'inculcation isolée de compétences plurielles. Une bourse d'études a d'ailleurs été spécialement mise en œuvre à dessein de subventionner les projets de recherche proposés par les étudiants. La gestion des modalités d'attribution financière est assurée par une commission interne spécifiquement mandatée à cet effet[réf. nécessaire].
-Distinction et affiliations
-Le collège est homologué par les instances suivantes :
-College of Physicians and Surgeons Pakistan (en)[5]
-Pakistan Medical and Dental Council (en)[9]
-Foundation for Advancement of International Medical Education and Research (en)[10],[N 2]
-University of Health Sciences, Lahore (en)[8]
-Vie estudiantine
-Sociétés
-Pour l'heure, aucun syndicat d'étudiants n'a droit de cité dans le cadre du SIMS. Toutefois, une dérogation est accordée au bénéfice de quelques associations et clubs :
+baccalauréat universitaire ès sciences de technologie médicale en bloc opératoire</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Subventions et bourses d'études</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diverses mesures promotionnelles et incitatives sont dispensées au profit d'étudiants méritants. Chaque dotation, définie au cas par cas, s'effectue sous forme de subventions pluridisciplinaires parmi lesquelles figurent des bourses d'études, des bons de trésorerie, voire l'attribution de médailles honorifiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le SIMS édite un journal spécialisé, The Esculapio, dont le contenu est consacré à la recherche médicale. Sa diffusion jouit d'une renommée internationale auprès de la communauté scientifique[évasif],[Par qui ?],[réf. souhaitée].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Recherche</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le SIMS est le premier collège médical de premier cycle qui astreint chaque étudiant de 4e année à l'élaboration d'un travail de recherche. La faculté croit en la vertu de l'éveil de la curiosité et de la soif d'apprendre ; elle cherche ainsi à accroître l'intérêt et l'ouverture d'esprit qui, selon elle, relèvent de qualités au moins aussi importantes au développement des connaissances que l'inculcation isolée de compétences plurielles. Une bourse d'études a d'ailleurs été spécialement mise en œuvre à dessein de subventionner les projets de recherche proposés par les étudiants. La gestion des modalités d'attribution financière est assurée par une commission interne spécifiquement mandatée à cet effet[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Distinction et affiliations</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Le collège est homologué par les instances suivantes :
+College of Physicians and Surgeons Pakistan (en)
+Pakistan Medical and Dental Council (en)
+Foundation for Advancement of International Medical Education and Research (en),[N 2]
+University of Health Sciences, Lahore (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vie estudiantine</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sociétés</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l'heure, aucun syndicat d'étudiants n'a droit de cité dans le cadre du SIMS. Toutefois, une dérogation est accordée au bénéfice de quelques associations et clubs :
 club de tennis
 Fine Art Society
 réunions littéraires
@@ -608,10 +1105,88 @@
 tennis de table
 badminton
 association SIMS vouée au bien-être des patients
-Publications
-Le SIMS publie une revue annuelle — The Simsonian — rédigée en collégialité par les étudiants de l'université.
-Sobriquet
-Les lauréats ayant obtenu leurs diplômes de fin d'études sont élus au grade de « Simsoniens[trad 7] ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vie estudiantine</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le SIMS publie une revue annuelle — The Simsonian — rédigée en collégialité par les étudiants de l'université.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Services_Institute_of_Medical_Sciences</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Vie estudiantine</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sobriquet</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lauréats ayant obtenu leurs diplômes de fin d'études sont élus au grade de « Simsoniens[trad 7] ».
 </t>
         </is>
       </c>
